--- a/Assets/8_Data/3_InventoryItemData.xlsx
+++ b/Assets/8_Data/3_InventoryItemData.xlsx
@@ -1,30 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333CECB6-59E5-44A2-A5D2-D7CFA16861A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Item" sheetId="1" r:id="rId1"/>
+    <sheet name="Data_ItemDrop_Chest" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -72,12 +85,71 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{85D27045-9EBA-485A-A010-40A4863FB697}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+attack range =1 la can chien</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{954A7E37-41A6-453F-BA61-E075A364D234}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+nằm trong resource/item
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>HP</t>
   </si>
@@ -100,25 +172,61 @@
     <t>SetName</t>
   </si>
   <si>
-    <t>ItemEquip_Mental</t>
-  </si>
-  <si>
-    <t>ItemEquip_Royal</t>
-  </si>
-  <si>
-    <t>ItemEquip_Wooden</t>
-  </si>
-  <si>
     <t>IsUnlockByAd</t>
   </si>
   <si>
-    <t>hỏi xem có làm rương hay không</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>DropItem1</t>
+  </si>
+  <si>
+    <t>DropItemName1</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>{gold,item2,item3,item4}</t>
+  </si>
+  <si>
+    <t>ItemDrop_Chest_Silver1</t>
+  </si>
+  <si>
+    <t>ItemDrop_Chest_Silver2</t>
+  </si>
+  <si>
+    <t>{2222,item2,item3,item4}</t>
+  </si>
+  <si>
+    <t>{9999,2,item3,item4}</t>
+  </si>
+  <si>
+    <t>{gold,ItemConsumable_EggBeast,item3,item4}</t>
+  </si>
+  <si>
+    <t>ItemEquip_Beach</t>
+  </si>
+  <si>
+    <t>ItemEquip_Viking</t>
+  </si>
+  <si>
+    <t>ItemEquip_Chief</t>
+  </si>
+  <si>
+    <t>ItemEquip_Pirate</t>
+  </si>
+  <si>
+    <t>ItemEquip_Magician</t>
+  </si>
+  <si>
+    <t>ItemEquip_Witch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,123 +550,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3.5</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0056006D-B065-4D88-931D-F003657B4B93}">
+  <dimension ref="A1:XFD3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B25" sqref="B24:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16384" max="16384" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3 16384:16384" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="XFD1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3 16384:16384" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>3.5</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3 16384:16384" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>60</v>
-      </c>
-      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
